--- a/Structs&mapping2.xlsx
+++ b/Structs&mapping2.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
